--- a/Datos de rendimiento.xlsx
+++ b/Datos de rendimiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnorambu/Documents/vqesimulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C745CE52-79F8-A544-90A1-96F3B4DC748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8EBB9-994D-124E-8FE1-1B2253E2DAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{67EAC0CD-C250-7547-BA7C-504C9336A832}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{67EAC0CD-C250-7547-BA7C-504C9336A832}"/>
   </bookViews>
   <sheets>
     <sheet name="Uso de memoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>Elemento</t>
   </si>
@@ -154,12 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2433,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2865CCAD-7819-7847-8B0E-144BFA3894AD}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3111,6 +3110,15 @@
       <c r="G29" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -3125,11 +3133,11 @@
       <c r="D30" s="3">
         <v>470</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <f>$B$26*C30</f>
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <f>$B$26*D30</f>
         <v>4.6999999999999999E-4</v>
       </c>
@@ -3137,6 +3145,17 @@
         <f>F30/E30</f>
         <v>14.6875</v>
       </c>
+      <c r="I30">
+        <f>3*A30</f>
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" ref="K30:K53" si="4">J30/I30</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
@@ -3151,17 +3170,28 @@
       <c r="D31" s="3">
         <v>473</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" ref="E31:F61" si="4">$B$26*C31</f>
+      <c r="E31">
+        <f t="shared" ref="E31:F53" si="5">$B$26*C31</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>4.73E-4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G53" si="6">F31/E31</f>
+        <v>3.6953125</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I53" si="7">3*A31</f>
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="4"/>
-        <v>4.73E-4</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G61" si="5">F31/E31</f>
-        <v>3.6953125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3177,20 +3207,31 @@
       <c r="D32" s="3">
         <v>872</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>5.1199999999999998E-4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>8.7199999999999995E-4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>1.703125</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
-        <v>5.1199999999999998E-4</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="4"/>
-        <v>8.7199999999999995E-4</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>1.703125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3203,20 +3244,31 @@
       <c r="D33" s="3">
         <v>1277</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>2.0479999999999999E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>1.2769999999999999E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0.62353515625</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
-        <v>2.0479999999999999E-3</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="4"/>
-        <v>1.2769999999999999E-3</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>0.62353515625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3229,20 +3281,31 @@
       <c r="D34" s="3">
         <v>1688</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>8.1919999999999996E-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>1.6879999999999998E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0.2060546875</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>8.1919999999999996E-3</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="4"/>
-        <v>1.6879999999999998E-3</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>0.2060546875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3255,20 +3318,31 @@
       <c r="D35" s="3">
         <v>2105</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>3.2767999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>2.1050000000000001E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>6.4239501953125E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>3.2767999999999999E-2</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1050000000000001E-3</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>6.4239501953125E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3281,20 +3355,31 @@
       <c r="D36" s="3">
         <v>2528</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>0.13107199999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>2.5279999999999999E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>1.9287109375E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>0.13107199999999999</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="4"/>
-        <v>2.5279999999999999E-3</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>1.9287109375E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3307,20 +3392,31 @@
       <c r="D37" s="3">
         <v>2957</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>0.52428799999999998</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>2.957E-3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>5.6400299072265625E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>0.52428799999999998</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="4"/>
-        <v>2.957E-3</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>5.6400299072265625E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3333,20 +3429,31 @@
       <c r="D38" s="3">
         <v>470</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>6.5277777777777777</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="4"/>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>6.5277777777777777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3359,20 +3466,31 @@
       <c r="D39" s="3">
         <v>473</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>6.4799999999999992E-4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>4.73E-4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0.7299382716049384</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="4"/>
-        <v>6.4799999999999992E-4</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="4"/>
-        <v>4.73E-4</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>0.7299382716049384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3385,20 +3503,31 @@
       <c r="D40" s="3">
         <v>872</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>5.8319999999999995E-3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>8.7199999999999995E-4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0.14951989026063101</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="4"/>
-        <v>5.8319999999999995E-3</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="4"/>
-        <v>8.7199999999999995E-4</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>0.14951989026063101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3411,20 +3540,31 @@
       <c r="D41" s="3">
         <v>1277</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>5.2488E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>1.2769999999999999E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>2.4329370522786158E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="4"/>
-        <v>5.2488E-2</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="4"/>
-        <v>1.2769999999999999E-3</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>2.4329370522786158E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3437,20 +3577,31 @@
       <c r="D42" s="3">
         <v>1688</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>0.47239199999999998</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>1.6879999999999998E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>3.5733035275787904E-3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="4"/>
-        <v>0.47239199999999998</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="4"/>
-        <v>1.6879999999999998E-3</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>3.5733035275787904E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3463,20 +3614,31 @@
       <c r="D43" s="3">
         <v>2105</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>4.2515279999999995</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>2.1050000000000001E-3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>4.9511610884369109E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>4.2515279999999995</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1050000000000001E-3</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>4.9511610884369109E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3489,20 +3651,31 @@
       <c r="D44" s="3">
         <v>2528</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>38.263751999999997</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>2.5279999999999999E-3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>6.6067749968690994E-5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="4"/>
-        <v>38.263751999999997</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="4"/>
-        <v>2.5279999999999999E-3</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>6.6067749968690994E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3515,20 +3688,31 @@
       <c r="D45" s="3">
         <v>2957</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>344.37376799999998</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>2.957E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>8.5866005914829157E-6</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="4"/>
-        <v>344.37376799999998</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="4"/>
-        <v>2.957E-3</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>8.5866005914829157E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3541,20 +3725,31 @@
       <c r="D46" s="3">
         <v>470</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>3.671875</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="4"/>
-        <v>1.2799999999999999E-4</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="4"/>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>3.671875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3567,20 +3762,31 @@
       <c r="D47" s="3">
         <v>473</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>2.0479999999999999E-3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>4.73E-4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0.23095703125</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="4"/>
-        <v>2.0479999999999999E-3</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="4"/>
-        <v>4.73E-4</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>0.23095703125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3593,20 +3799,31 @@
       <c r="D48" s="3">
         <v>872</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>3.2767999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>8.7199999999999995E-4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>2.6611328125E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="4"/>
-        <v>3.2767999999999999E-2</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="4"/>
-        <v>8.7199999999999995E-4</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>2.6611328125E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3619,20 +3836,31 @@
       <c r="D49" s="3">
         <v>1277</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>0.52428799999999998</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>1.2769999999999999E-3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>2.4356842041015625E-3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="4"/>
-        <v>0.52428799999999998</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="4"/>
-        <v>1.2769999999999999E-3</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>2.4356842041015625E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3645,20 +3873,31 @@
       <c r="D50" s="3">
         <v>1688</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>8.3886079999999996</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>1.6879999999999998E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>2.0122528076171875E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="4"/>
-        <v>8.3886079999999996</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="4"/>
-        <v>1.6879999999999998E-3</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
-        <v>2.0122528076171875E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>6</v>
       </c>
@@ -3671,20 +3910,31 @@
       <c r="D51" s="3">
         <v>2105</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>134.21772799999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>2.1050000000000001E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>1.5683472156524658E-5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="4"/>
-        <v>134.21772799999999</v>
-      </c>
-      <c r="F51" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1050000000000001E-3</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>1.5683472156524658E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>7</v>
       </c>
@@ -3697,81 +3947,90 @@
       <c r="D52" s="3">
         <v>2528</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>2147.4836479999999</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>2.5279999999999999E-3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>1.1771917343139648E-6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="4"/>
-        <v>2147.4836479999999</v>
-      </c>
-      <c r="F52" s="4">
-        <f t="shared" si="4"/>
-        <v>2.5279999999999999E-3</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="5"/>
-        <v>1.1771917343139648E-6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
+      <c r="C53" s="3">
+        <v>34359738368</v>
+      </c>
       <c r="D53" s="3">
         <v>2957</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>34359.738367999998</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>2.957E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>8.6060026660561562E-8</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <f t="shared" si="4"/>
-        <v>2.957E-3</v>
-      </c>
-      <c r="G53" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:11">
       <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:11">
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:11">
       <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:11">
       <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:11">
       <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:11">
       <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:11">
       <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
